--- a/GTFS-creator/pre-GTFS/GTFS_Swierklany.xlsx
+++ b/GTFS-creator/pre-GTFS/GTFS_Swierklany.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matwa\Documents\Inzynierka\GTFS-creator\pre-GTFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D426E96B-391E-4EE5-80B1-4295CAC9347F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2579DCF0-547A-49F5-8EF1-434EB7636593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{B784DAB1-23CF-454B-B54B-A0B7B0C104B5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B784DAB1-23CF-454B-B54B-A0B7B0C104B5}"/>
   </bookViews>
   <sheets>
     <sheet name="agency" sheetId="1" r:id="rId1"/>
-    <sheet name="stops" sheetId="2" r:id="rId2"/>
-    <sheet name="weekdaysS-1" sheetId="3" r:id="rId3"/>
-    <sheet name="weekdaysJ-1" sheetId="4" r:id="rId4"/>
-    <sheet name="calendar" sheetId="5" r:id="rId5"/>
-    <sheet name="calendar_dates" sheetId="6" r:id="rId6"/>
-    <sheet name="feed_info" sheetId="7" r:id="rId7"/>
+    <sheet name="routes" sheetId="8" r:id="rId2"/>
+    <sheet name="stops" sheetId="2" r:id="rId3"/>
+    <sheet name="WEEKDAYSS-1_0" sheetId="3" r:id="rId4"/>
+    <sheet name="WEEKDAYSJ-1_0" sheetId="4" r:id="rId5"/>
+    <sheet name="calendar" sheetId="5" r:id="rId6"/>
+    <sheet name="calendar_dates" sheetId="6" r:id="rId7"/>
+    <sheet name="feed_info" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
   <si>
     <t>agency_id</t>
   </si>
@@ -413,9 +414,6 @@
     <t>service_id</t>
   </si>
   <si>
-    <t>weekdays</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -507,6 +505,27 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>route_id</t>
+  </si>
+  <si>
+    <t>route_short_name</t>
+  </si>
+  <si>
+    <t>route_long_name</t>
+  </si>
+  <si>
+    <t>route_type</t>
+  </si>
+  <si>
+    <t>J-1</t>
+  </si>
+  <si>
+    <t>S-1</t>
+  </si>
+  <si>
+    <t>SWIERKLANY</t>
   </si>
 </sst>
 </file>
@@ -514,8 +533,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -572,9 +591,9 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -922,11 +941,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -948,30 +968,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -980,6 +1000,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE7D82E-55F7-4CB9-8465-1935D450BB5E}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25559D0-776A-45A1-9065-B74915B634BC}">
   <dimension ref="A1:F33"/>
   <sheetViews>
@@ -1542,12 +1628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E82F334-B8E9-4EA3-A842-E3BC042E6D23}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2330,7 +2416,6 @@
       <c r="I17" s="2">
         <v>0.49027777777777776</v>
       </c>
-      <c r="J17" s="2"/>
       <c r="K17" s="2">
         <v>0.60138888888888886</v>
       </c>
@@ -2345,6 +2430,47 @@
       </c>
       <c r="O17" s="2">
         <v>0.74027777777777781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2352,12 +2478,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0C6DE0-9C4C-43E7-B7BA-754BB0E825A3}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C1" sqref="C1:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2964,83 +3090,27 @@
         <v>0.70902777777777781</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3D60FB-F494-426E-A820-3BF5163C50F4}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>20250813</v>
-      </c>
-      <c r="J2">
-        <v>21001231</v>
+    <row r="21" spans="1:9">
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3049,6 +3119,88 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3D60FB-F494-426E-A820-3BF5163C50F4}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>20250813</v>
+      </c>
+      <c r="J2">
+        <v>21001231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41460D1-D7EB-42B4-9799-23C2D8296809}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3068,15 +3220,15 @@
         <v>122</v>
       </c>
       <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>124</v>
-      </c>
-      <c r="C1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="4">
         <v>45658</v>
@@ -3087,7 +3239,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="4">
         <v>45663</v>
@@ -3098,7 +3250,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4">
         <v>45778</v>
@@ -3109,7 +3261,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="4">
         <v>45780</v>
@@ -3120,7 +3272,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4">
         <v>45884</v>
@@ -3131,7 +3283,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="4">
         <v>45962</v>
@@ -3142,7 +3294,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="4">
         <v>45972</v>
@@ -3153,7 +3305,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="4">
         <v>46016</v>
@@ -3164,7 +3316,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="4">
         <v>46017</v>
@@ -3178,12 +3330,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D1F004-2AC6-44F7-85C3-40777421B5E9}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3198,45 +3350,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" t="s">
         <v>145</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>146</v>
-      </c>
-      <c r="H1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="F2" s="7">
         <v>20250813</v>
@@ -3245,7 +3397,7 @@
         <v>20500813</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
